--- a/MAPA DE PROPOSTAS_LICITAÇÕES-BKP (1).xlsx
+++ b/MAPA DE PROPOSTAS_LICITAÇÕES-BKP (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adonisss\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D69CDA-CE05-4BFF-ACBE-385A22337891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B89B22-2B82-469D-AD75-B8D868712FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="741" activeTab="5" xr2:uid="{DB9F6DC5-4B07-4ECF-9D2D-ADCC67CFD0A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="741" activeTab="6" xr2:uid="{DB9F6DC5-4B07-4ECF-9D2D-ADCC67CFD0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="MAPA" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="LISTA DO MAPA" sheetId="7" r:id="rId4"/>
     <sheet name="TabelaDinâmica" sheetId="8" r:id="rId5"/>
     <sheet name="GRÁFICO 1" sheetId="16" r:id="rId6"/>
+    <sheet name="GRAFICO 2" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAPA!$A$1:$U$71</definedName>
@@ -33,7 +34,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -971,7 +972,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="405">
   <si>
     <t>DATA PUBLIC/ RECEB</t>
   </si>
@@ -3037,7 +3038,309 @@
     <cellStyle name="Vírgula 3 5" xfId="21" xr:uid="{C2DA2915-AAED-4004-9A0D-4C17690420E1}"/>
     <cellStyle name="Vírgula 5" xfId="13" xr:uid="{22AB0CE5-6B0D-47C9-ACF9-CD585B68C40A}"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="133">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3178,23 +3481,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -3230,249 +3516,19 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4589,12 +4645,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="NOVO" pivot="0" table="0" count="10" xr9:uid="{93D3FBF0-3D49-4C07-A47A-83808863F207}">
-      <tableStyleElement type="wholeTable" dxfId="123"/>
-      <tableStyleElement type="headerRow" dxfId="122"/>
+      <tableStyleElement type="wholeTable" dxfId="132"/>
+      <tableStyleElement type="headerRow" dxfId="131"/>
     </tableStyle>
     <tableStyle name="NOVO_LINHA_DO_TEMPO" pivot="0" table="0" count="9" xr9:uid="{7C48A1F8-5AE1-4EE3-882E-7712445DFCA5}">
-      <tableStyleElement type="wholeTable" dxfId="121"/>
-      <tableStyleElement type="headerRow" dxfId="120"/>
+      <tableStyleElement type="wholeTable" dxfId="130"/>
+      <tableStyleElement type="headerRow" dxfId="129"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7017,6 +7073,1530 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[MAPA DE PROPOSTAS_LICITAÇÕES-BKP (1).xlsx]TabelaDinâmica!Tabela dinâmica4</c:name>
+    <c:fmtId val="23"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>INDICADORES DE DESEMPENHO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>TIPO PROPOSTA</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>TOTAL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> X </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>QUANTIDADE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> X </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>PERCENTUAL</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="72000" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="684000" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="504000" rIns="0" bIns="0" anchor="ctr" anchorCtr="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TabelaDinâmica!$E$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="72000" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="C00000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TabelaDinâmica!$D$56:$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>LICITAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ESTIMATIVA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CONTINUAÇÃO/ PROSPECT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PROPOSTA/ PROSPECT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PROPOSTA/ ADITIVO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ATUALIZAÇÃO/PROSPECT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SERV. EXTRA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PROPOSTA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DISPENSA DE LICITAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ADITIVO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ATUALIZAÇÃO/ ADITIVO</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PROPOSTA/ REDUÇÃO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TabelaDinâmica!$E$56:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1179634.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>657529.57999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611854.70000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110420.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47226.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39861.049999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22302.879999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20543.510000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>374.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6482.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EBF-4641-8E7F-907A2F503379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TabelaDinâmica!$F$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CONTAGEM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="684000" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TabelaDinâmica!$D$56:$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>LICITAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ESTIMATIVA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CONTINUAÇÃO/ PROSPECT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PROPOSTA/ PROSPECT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PROPOSTA/ ADITIVO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ATUALIZAÇÃO/PROSPECT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SERV. EXTRA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PROPOSTA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DISPENSA DE LICITAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ADITIVO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ATUALIZAÇÃO/ ADITIVO</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PROPOSTA/ REDUÇÃO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TabelaDinâmica!$F$56:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EBF-4641-8E7F-907A2F503379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TabelaDinâmica!$G$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PERCENTUAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="504000" rIns="0" bIns="0" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TabelaDinâmica!$D$56:$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>LICITAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ESTIMATIVA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CONTINUAÇÃO/ PROSPECT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PROPOSTA/ PROSPECT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PROPOSTA/ ADITIVO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ATUALIZAÇÃO/PROSPECT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SERV. EXTRA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PROPOSTA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DISPENSA DE LICITAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ADITIVO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ATUALIZAÇÃO/ ADITIVO</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PROPOSTA/ REDUÇÃO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TabelaDinâmica!$G$56:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.43719387203051313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24369233727333064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22676440186108823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0923987143926609E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7502971569277104E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4773225016993298E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2658501160154958E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6137958199508559E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.533327634462965E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3867045329609264E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4024389188544914E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6EBF-4641-8E7F-907A2F503379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1427553440"/>
+        <c:axId val="1427564256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1427553440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1427564256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1427564256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1427553440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7098,6 +8678,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8661,6 +10281,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/documenttasks/documenttask1.xml><?xml version="1.0" encoding="utf-8"?>
 <Tasks xmlns="http://schemas.microsoft.com/office/tasks/2019/documenttasks">
   <Task id="{070B1886-11B2-48C3-AEA5-B92F09DF40D2}">
@@ -9484,6 +11607,117 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0757C35E-AAD4-4F45-9B0C-9EF9623FCBC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60960" y="114300"/>
+          <a:ext cx="13693140" cy="4579620"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12507"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E07FE4B-5F1C-4978-B8A5-CE5C4A00BF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <namedSheetView name="Marcos" id="{C896A013-859C-4F86-B6C0-1AF8508B75EE}">
@@ -11337,1133 +13571,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAFAF1F2-3CB9-4681-98D7-E573DE3C967B}" name="TIPO PROPOSTA CONTAGEM" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27" rowHeaderCaption="TIPO PROPOSTA">
-  <location ref="A69:B81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="13">
-        <item x="10"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="CONTAGEM" fld="18" subtotal="count" baseField="7" baseItem="7"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="7">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="13" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="23" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="26" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleDark24" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="152" name="DATA PUBLIC/ RECEB">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44197"/>
-            <customFilter operator="lessThanOrEqual" val="44561"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DC08ACB-D8BD-4BA7-80B0-18757E8DA63A}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="CONTATO COMERCIAL">
-  <location ref="A16:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="PERCENTUAL" fld="18" subtotal="count" showDataAs="percentOfTotal" baseField="10" baseItem="1" numFmtId="10"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="65">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="10" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="61">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleDark23" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="90" name="DATA PUBLIC/ RECEB">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44470"/>
-            <customFilter operator="lessThanOrEqual" val="44500"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96D9A626-0C95-4C91-BDFF-F72037EF89AF}" name="TIPO PROPOSTA PERCENTUAL" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28" rowHeaderCaption="TIPO PROPOSTA">
-  <location ref="A83:B95" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5ABDDD17-4898-498A-B4EA-CCBD1023CFA8}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24" rowHeaderCaption="TIPO PROPOSTA">
+  <location ref="D55:G67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
       <items count="369">
@@ -12947,20 +14056,33 @@
       <x v="10"/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="PERCENTUAL" fld="18" showDataAs="percentOfTotal" baseField="7" baseItem="0" numFmtId="10"/>
+  <dataFields count="3">
+    <dataField name="TOTAL" fld="18" baseField="7" baseItem="7" numFmtId="167"/>
+    <dataField name="CONTAGEM" fld="18" subtotal="count" baseField="7" baseItem="6"/>
+    <dataField name="PERCENTUAL" fld="18" showDataAs="percentOfTotal" baseField="7" baseItem="6" numFmtId="10"/>
   </dataFields>
-  <formats count="8">
-    <format dxfId="15">
+  <formats count="9">
+    <format dxfId="1">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12969,16 +14091,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="4">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="6">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
@@ -12988,9 +14110,18 @@
     <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
+    <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
   </formats>
-  <chartFormats count="4">
-    <chartFormat chart="21" format="4" series="1">
+  <chartFormats count="10">
+    <chartFormat chart="13" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12999,7 +14130,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="25" format="0" series="1">
+    <chartFormat chart="15" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13008,7 +14139,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="26" format="1" series="1">
+    <chartFormat chart="18" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13017,7 +14148,31 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="27" format="2" series="1">
+    <chartFormat chart="18" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13026,10 +14181,49 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="20" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleDark24" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="152" name="DATA PUBLIC/ RECEB">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="156" name="DATA PUBLIC/ RECEB">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -13056,7 +14250,508 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B096F7D1-9AC6-4630-8A6E-8A64D1D9A575}" name="CONTATO COMERCIAL SOMA" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="CONTATO COMERCIAL">
+  <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="TOTAL" fld="18" baseField="13" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="66">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleDark23" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="156" name="DATA PUBLIC/ RECEB">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44470"/>
+            <customFilter operator="lessThanOrEqual" val="44500"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12FF15EA-E7C2-487B-9620-0B7A450C134D}" name="TIPO PROPOSTA TOTAL" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21" rowHeaderCaption="TIPO PROPOSTA">
   <location ref="A55:B67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
@@ -13549,13 +15244,13 @@
     <dataField name="TOTAL" fld="18" baseField="7" baseItem="7" numFmtId="167"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="23">
+    <format dxfId="74">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="72">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13564,23 +15259,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="71">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="69">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -13666,6 +15361,1096 @@
           <customFilters and="1">
             <customFilter operator="greaterThanOrEqual" val="44197"/>
             <customFilter operator="lessThanOrEqual" val="44561"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5339F108-B10D-41CC-9C22-7DC7FB465C44}" name="STATUS / MOTIMO SOMA" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="STATUS / MOTIVO">
+  <location ref="A22:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="14"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="TOTAL" fld="18" baseField="13" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="14" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark22" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="264" name="DATA PUBLIC/ RECEB">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44470"/>
+            <customFilter operator="lessThanOrEqual" val="44500"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191CD8A8-B4BD-431D-BDF2-B1B640A3B805}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="STATUS / MOTIVO">
+  <location ref="A44:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="14"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="PERCENTUAL" fld="18" subtotal="count" showDataAs="percentOfTotal" baseField="14" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="22">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="14" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark22" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="264" name="DATA PUBLIC/ RECEB">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44470"/>
+            <customFilter operator="lessThanOrEqual" val="44500"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -14167,16 +16952,16 @@
     <dataField name="CONTAGEM" fld="18" subtotal="count" baseField="14" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="32">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="30">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14185,23 +16970,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="25">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14246,6 +17031,536 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DC08ACB-D8BD-4BA7-80B0-18757E8DA63A}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="CONTATO COMERCIAL">
+  <location ref="A16:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="PERCENTUAL" fld="18" subtotal="count" showDataAs="percentOfTotal" baseField="10" baseItem="1" numFmtId="10"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="37">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark23" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="90" name="DATA PUBLIC/ RECEB">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44470"/>
+            <customFilter operator="lessThanOrEqual" val="44500"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB9F58FB-9EDB-425C-B08F-DEC521D2DF9D}" name="CONTATO COMERCIAL CONTAGEM" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="CONTATO COMERCIAL">
   <location ref="A10:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
@@ -14697,23 +18012,23 @@
     <dataField name="CONTAGEM" fld="18" subtotal="count" baseField="10" baseItem="1"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="37">
+    <format dxfId="42">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="40">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14766,7 +18081,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC458047-51A8-48D1-8E8A-294FCEBEDFE3}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="25">
@@ -15196,13 +18511,13 @@
     <dataField name="TOTAL" fld="18" baseField="13" baseItem="0" numFmtId="167"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="40">
+    <format dxfId="45">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -15238,9 +18553,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B096F7D1-9AC6-4630-8A6E-8A64D1D9A575}" name="CONTATO COMERCIAL SOMA" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="CONTATO COMERCIAL">
-  <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAFAF1F2-3CB9-4681-98D7-E573DE3C967B}" name="TIPO PROPOSTA CONTAGEM" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27" rowHeaderCaption="TIPO PROPOSTA">
+  <location ref="A69:B81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
       <items count="369">
@@ -15621,18 +18936,35 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="10"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15667,57 +18999,134 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="10"/>
+    <field x="7"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="12">
     <i>
-      <x/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="TOTAL" fld="18" baseField="13" baseItem="0" numFmtId="167"/>
+    <dataField name="CONTAGEM" fld="18" subtotal="count" baseField="7" baseItem="7"/>
   </dataFields>
-  <formats count="5">
-    <format dxfId="45">
+  <formats count="8">
+    <format dxfId="53">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+    <format dxfId="51">
+      <pivotArea outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="10" count="0"/>
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="50">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleDark23" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <chartFormats count="4">
+    <chartFormat chart="13" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark24" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="156" name="DATA PUBLIC/ RECEB">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="152" name="DATA PUBLIC/ RECEB">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44470"/>
-            <customFilter operator="lessThanOrEqual" val="44500"/>
+            <customFilter operator="greaterThanOrEqual" val="44197"/>
+            <customFilter operator="lessThanOrEqual" val="44561"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -15739,9 +19148,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5339F108-B10D-41CC-9C22-7DC7FB465C44}" name="STATUS / MOTIMO SOMA" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="STATUS / MOTIVO">
-  <location ref="A22:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96D9A626-0C95-4C91-BDFF-F72037EF89AF}" name="TIPO PROPOSTA PERCENTUAL" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28" rowHeaderCaption="TIPO PROPOSTA">
+  <location ref="A83:B95" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0">
       <items count="369">
@@ -16122,6 +19531,32 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="10"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16129,20 +19564,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16173,9 +19594,36 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="14"/>
+    <field x="7"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="12">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i>
       <x/>
     </i>
@@ -16183,56 +19631,80 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="10"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="TOTAL" fld="18" baseField="13" baseItem="0" numFmtId="167"/>
+    <dataField name="PERCENTUAL" fld="18" showDataAs="percentOfTotal" baseField="7" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <formats count="5">
-    <format dxfId="50">
+  <formats count="8">
+    <format dxfId="61">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+    <format dxfId="59">
+      <pivotArea outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="14" count="0"/>
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="58">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
+  <chartFormats count="4">
+    <chartFormat chart="21" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="25" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16242,572 +19714,14 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleDark22" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleDark24" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="264" name="DATA PUBLIC/ RECEB">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="152" name="DATA PUBLIC/ RECEB">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44470"/>
-            <customFilter operator="lessThanOrEqual" val="44500"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191CD8A8-B4BD-431D-BDF2-B1B640A3B805}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="STATUS / MOTIVO">
-  <location ref="A44:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="14"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="PERCENTUAL" fld="18" subtotal="count" showDataAs="percentOfTotal" baseField="14" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="59">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="14" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleDark22" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="264" name="DATA PUBLIC/ RECEB">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44470"/>
-            <customFilter operator="lessThanOrEqual" val="44500"/>
+            <customFilter operator="greaterThanOrEqual" val="44197"/>
+            <customFilter operator="lessThanOrEqual" val="44561"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -16889,64 +19803,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AFB2B2C-F9DE-443C-84FB-97A38A8F93B7}" name="TBL_MAPA" displayName="TBL_MAPA" ref="A1:V55" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" tableBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AFB2B2C-F9DE-443C-84FB-97A38A8F93B7}" name="TBL_MAPA" displayName="TBL_MAPA" ref="A1:V55" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
   <autoFilter ref="A1:V55" xr:uid="{1AFB2B2C-F9DE-443C-84FB-97A38A8F93B7}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{55F246F4-4F4F-4B7A-821F-405621B26DCD}" name="DATA PUBLIC/ RECEB" dataDxfId="114" dataCellStyle="Normal 2 2 2"/>
-    <tableColumn id="2" xr3:uid="{E43FCF75-A4FD-4755-9DCD-59E9BDF24079}" name="DATA DISPUTA/ APRESENT. PROP." dataDxfId="113" dataCellStyle="Normal 2 2 2"/>
-    <tableColumn id="23" xr3:uid="{2C892F20-3E18-4381-8C4E-4F043DD5AE4E}" name="DIAS RESTANTES" dataDxfId="112" dataCellStyle="Normal 2 2 2">
+    <tableColumn id="1" xr3:uid="{55F246F4-4F4F-4B7A-821F-405621B26DCD}" name="DATA PUBLIC/ RECEB" dataDxfId="123" dataCellStyle="Normal 2 2 2"/>
+    <tableColumn id="2" xr3:uid="{E43FCF75-A4FD-4755-9DCD-59E9BDF24079}" name="DATA DISPUTA/ APRESENT. PROP." dataDxfId="122" dataCellStyle="Normal 2 2 2"/>
+    <tableColumn id="23" xr3:uid="{2C892F20-3E18-4381-8C4E-4F043DD5AE4E}" name="DIAS RESTANTES" dataDxfId="121" dataCellStyle="Normal 2 2 2">
       <calculatedColumnFormula>NETWORKDAYS.INTL(TODAY(),TBL_MAPA[[#This Row],[DATA DISPUTA/ APRESENT. PROP.]],1,LISTA_DATA_FERIADOS)-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A3428280-A148-47F1-B77C-FFC946A576A6}" name="TIPO" dataDxfId="111" dataCellStyle="Normal 2 2 2"/>
-    <tableColumn id="4" xr3:uid="{BFAD0D2F-8CAE-4BC2-B9B2-1D04BFFAD9B0}" name="EMPRESA/ ÓRGÃO (MÃE)" dataDxfId="110" dataCellStyle="Moeda 3 2"/>
-    <tableColumn id="5" xr3:uid="{91672110-08E5-4AFA-A721-056B799226B0}" name="EMPRESA/ ORGÃO (SUB NIVEL 1)" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{3835A3CB-E09A-4213-8C37-3FF668ABE5ED}" name="ASSUNTO/ OBJETO" dataDxfId="108" dataCellStyle="Normal 2 2 2"/>
-    <tableColumn id="7" xr3:uid="{BDE2AC1F-0DEE-4B60-8521-59C0BD059FB2}" name="TIPO DE PROPOSTA" dataDxfId="107" dataCellStyle="Normal 2 2 2"/>
-    <tableColumn id="8" xr3:uid="{4F630B13-BEB0-4268-B063-D656FF4723A5}" name="Nº EDITAL/_x000a_CLIENTE/ Nº PROPOSTA" dataDxfId="106" dataCellStyle="Normal 2 2 2"/>
-    <tableColumn id="9" xr3:uid="{66DC8112-E158-486A-967B-185B064AE4CA}" name="EFETIVO" dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{7403B099-1DF8-445B-B0A6-773B769F645D}" name="CONTATO COMERCIAL" dataDxfId="104" dataCellStyle="Normal 2 2 2"/>
-    <tableColumn id="11" xr3:uid="{CA970615-6AFF-49DD-8B20-D62F43D8D870}" name="RESPONSÁVEL PRECIFICAÇÃO" dataDxfId="103" dataCellStyle="Normal 2 2 2"/>
-    <tableColumn id="12" xr3:uid="{D6266932-C1C8-4DFD-B296-F97FC1FC9B8A}" name="VIABILIDADE TÉCNICA" dataDxfId="102"/>
-    <tableColumn id="13" xr3:uid="{FE54E2CD-5C28-4058-A2B8-D8595A78B9C8}" name="VIABILIDADE ECONÔMICA" dataDxfId="101"/>
-    <tableColumn id="14" xr3:uid="{FA4E01E0-18DE-42D4-8004-94209542F14D}" name="STATUS/ MOTIVO" dataDxfId="100" dataCellStyle="Normal 2 2 2"/>
-    <tableColumn id="15" xr3:uid="{A184657C-7FB9-428A-BFF1-A34C2FAABFA1}" name="OBSERVAÇÕES" dataDxfId="99"/>
-    <tableColumn id="16" xr3:uid="{36A72ECD-B944-443C-8C34-6EEA3FC04C95}" name="EMPRESA EXECUTANTE" dataDxfId="98"/>
-    <tableColumn id="17" xr3:uid="{7117A600-E632-4635-9047-C66997D1DFC7}" name="VALOR ESTIMADO MÊS" dataDxfId="97" dataCellStyle="Vírgula"/>
-    <tableColumn id="18" xr3:uid="{4AA798BF-F493-4907-B5EF-291F135E6648}" name="VALOR /MÊS - PROPOSTA APRESENTADA (LANCE FINAL)" dataDxfId="96" dataCellStyle="Vírgula"/>
-    <tableColumn id="19" xr3:uid="{800933C6-AE39-40FD-804A-2D736CB0FA1A}" name="CLASSIFICAÇÃO/ NOVARIO" dataDxfId="95"/>
-    <tableColumn id="20" xr3:uid="{6C5CBAFC-3E1C-41E7-9B3C-3BE8D5CEACBC}" name="EMPRESA VENCEDORA" dataDxfId="94"/>
-    <tableColumn id="21" xr3:uid="{870E52FD-F0FB-4EE0-AE94-202860EF34C4}" name="ANÁLISE CRITICA DO MOTIVO DE PERDA" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{A3428280-A148-47F1-B77C-FFC946A576A6}" name="TIPO" dataDxfId="120" dataCellStyle="Normal 2 2 2"/>
+    <tableColumn id="4" xr3:uid="{BFAD0D2F-8CAE-4BC2-B9B2-1D04BFFAD9B0}" name="EMPRESA/ ÓRGÃO (MÃE)" dataDxfId="119" dataCellStyle="Moeda 3 2"/>
+    <tableColumn id="5" xr3:uid="{91672110-08E5-4AFA-A721-056B799226B0}" name="EMPRESA/ ORGÃO (SUB NIVEL 1)" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{3835A3CB-E09A-4213-8C37-3FF668ABE5ED}" name="ASSUNTO/ OBJETO" dataDxfId="117" dataCellStyle="Normal 2 2 2"/>
+    <tableColumn id="7" xr3:uid="{BDE2AC1F-0DEE-4B60-8521-59C0BD059FB2}" name="TIPO DE PROPOSTA" dataDxfId="116" dataCellStyle="Normal 2 2 2"/>
+    <tableColumn id="8" xr3:uid="{4F630B13-BEB0-4268-B063-D656FF4723A5}" name="Nº EDITAL/_x000a_CLIENTE/ Nº PROPOSTA" dataDxfId="115" dataCellStyle="Normal 2 2 2"/>
+    <tableColumn id="9" xr3:uid="{66DC8112-E158-486A-967B-185B064AE4CA}" name="EFETIVO" dataDxfId="114"/>
+    <tableColumn id="10" xr3:uid="{7403B099-1DF8-445B-B0A6-773B769F645D}" name="CONTATO COMERCIAL" dataDxfId="113" dataCellStyle="Normal 2 2 2"/>
+    <tableColumn id="11" xr3:uid="{CA970615-6AFF-49DD-8B20-D62F43D8D870}" name="RESPONSÁVEL PRECIFICAÇÃO" dataDxfId="112" dataCellStyle="Normal 2 2 2"/>
+    <tableColumn id="12" xr3:uid="{D6266932-C1C8-4DFD-B296-F97FC1FC9B8A}" name="VIABILIDADE TÉCNICA" dataDxfId="111"/>
+    <tableColumn id="13" xr3:uid="{FE54E2CD-5C28-4058-A2B8-D8595A78B9C8}" name="VIABILIDADE ECONÔMICA" dataDxfId="110"/>
+    <tableColumn id="14" xr3:uid="{FA4E01E0-18DE-42D4-8004-94209542F14D}" name="STATUS/ MOTIVO" dataDxfId="109" dataCellStyle="Normal 2 2 2"/>
+    <tableColumn id="15" xr3:uid="{A184657C-7FB9-428A-BFF1-A34C2FAABFA1}" name="OBSERVAÇÕES" dataDxfId="108"/>
+    <tableColumn id="16" xr3:uid="{36A72ECD-B944-443C-8C34-6EEA3FC04C95}" name="EMPRESA EXECUTANTE" dataDxfId="107"/>
+    <tableColumn id="17" xr3:uid="{7117A600-E632-4635-9047-C66997D1DFC7}" name="VALOR ESTIMADO MÊS" dataDxfId="106" dataCellStyle="Vírgula"/>
+    <tableColumn id="18" xr3:uid="{4AA798BF-F493-4907-B5EF-291F135E6648}" name="VALOR /MÊS - PROPOSTA APRESENTADA (LANCE FINAL)" dataDxfId="105" dataCellStyle="Vírgula"/>
+    <tableColumn id="19" xr3:uid="{800933C6-AE39-40FD-804A-2D736CB0FA1A}" name="CLASSIFICAÇÃO/ NOVARIO" dataDxfId="104"/>
+    <tableColumn id="20" xr3:uid="{6C5CBAFC-3E1C-41E7-9B3C-3BE8D5CEACBC}" name="EMPRESA VENCEDORA" dataDxfId="103"/>
+    <tableColumn id="21" xr3:uid="{870E52FD-F0FB-4EE0-AE94-202860EF34C4}" name="ANÁLISE CRITICA DO MOTIVO DE PERDA" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00A14299-77E7-4606-A6B9-63182F281F05}" name="TBL_TIPO" displayName="TBL_TIPO" ref="A1:A4" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00A14299-77E7-4606-A6B9-63182F281F05}" name="TBL_TIPO" displayName="TBL_TIPO" ref="A1:A4" totalsRowShown="0" headerRowDxfId="101" headerRowBorderDxfId="100" tableBorderDxfId="99" totalsRowBorderDxfId="98">
   <autoFilter ref="A1:A4" xr:uid="{00A14299-77E7-4606-A6B9-63182F281F05}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BD2A3A7F-103B-40DE-B05B-54F17EBAF722}" name="TIPO" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{BD2A3A7F-103B-40DE-B05B-54F17EBAF722}" name="TIPO" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80638320-5408-4839-9822-9328169A1EE1}" name="TBL_LICITAÇÃO_ADITIVO_PROPOSTA_OU_ATUALIZAÇÃO" displayName="TBL_LICITAÇÃO_ADITIVO_PROPOSTA_OU_ATUALIZAÇÃO" ref="E1:F11" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85" totalsRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80638320-5408-4839-9822-9328169A1EE1}" name="TBL_LICITAÇÃO_ADITIVO_PROPOSTA_OU_ATUALIZAÇÃO" displayName="TBL_LICITAÇÃO_ADITIVO_PROPOSTA_OU_ATUALIZAÇÃO" ref="E1:F11" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <autoFilter ref="E1:F11" xr:uid="{80638320-5408-4839-9822-9328169A1EE1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A89ECDDA-5C63-4BC0-82A4-12B25DAB9BF4}" name="LICITAÇÃO/ADITIVO/PROPOSTA OU ATUALIZAÇÃO" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{06494A75-6F3A-4E63-B49F-7D031565BFFD}" name="Coluna1" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{A89ECDDA-5C63-4BC0-82A4-12B25DAB9BF4}" name="LICITAÇÃO/ADITIVO/PROPOSTA OU ATUALIZAÇÃO" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{06494A75-6F3A-4E63-B49F-7D031565BFFD}" name="Coluna1" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CCB9F6E6-032F-44CC-8FBB-1E6B83CE8DC9}" name="TBL_EMPRESA_EXECUTANTE" displayName="TBL_EMPRESA_EXECUTANTE" ref="J1:J5" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CCB9F6E6-032F-44CC-8FBB-1E6B83CE8DC9}" name="TBL_EMPRESA_EXECUTANTE" displayName="TBL_EMPRESA_EXECUTANTE" ref="J1:J5" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="J1:J5" xr:uid="{CCB9F6E6-032F-44CC-8FBB-1E6B83CE8DC9}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C0028551-8C60-4BEC-8BF2-4FE47A37F0A3}" name="EMPRESA EXECUTANTE" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{C0028551-8C60-4BEC-8BF2-4FE47A37F0A3}" name="EMPRESA EXECUTANTE" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16966,10 +19880,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{09FE4E95-F75E-48A4-86C0-C151A771B949}" name="TBL_CONTATO_COMERCIAL" displayName="TBL_CONTATO_COMERCIAL" ref="Q1:Q11" totalsRowShown="0" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{09FE4E95-F75E-48A4-86C0-C151A771B949}" name="TBL_CONTATO_COMERCIAL" displayName="TBL_CONTATO_COMERCIAL" ref="Q1:Q11" totalsRowShown="0" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <autoFilter ref="Q1:Q11" xr:uid="{09FE4E95-F75E-48A4-86C0-C151A771B949}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{36ADD91F-425B-4A80-B05D-4E55E9A28EF2}" name="CONTATO COMERCIAL" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{36ADD91F-425B-4A80-B05D-4E55E9A28EF2}" name="CONTATO COMERCIAL" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16986,11 +19900,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{234EE879-02BC-4AEB-8B15-830D96E6799E}" name="TBL_DATA_FERIADOS" displayName="TBL_DATA_FERIADOS" ref="AC1:AD19" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="70" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{234EE879-02BC-4AEB-8B15-830D96E6799E}" name="TBL_DATA_FERIADOS" displayName="TBL_DATA_FERIADOS" ref="AC1:AD19" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" totalsRowBorderDxfId="77">
   <autoFilter ref="AC1:AD19" xr:uid="{234EE879-02BC-4AEB-8B15-830D96E6799E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0C85EFB0-FAB9-4727-BE88-494B381A5D40}" name="DATAS" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{1B7DB4A2-0C74-4830-A2F1-7CDEA62B98F6}" name="FERIADOS" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{0C85EFB0-FAB9-4727-BE88-494B381A5D40}" name="DATAS" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{1B7DB4A2-0C74-4830-A2F1-7CDEA62B98F6}" name="FERIADOS" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24235,11 +27149,11 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C2:C55">
-    <cfRule type="cellIs" dxfId="119" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="1" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -25039,17 +27953,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E48334-F121-44A2-B239-3E300633FA9F}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="52" style="103" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="103"/>
+    <col min="3" max="3" width="8.88671875" style="103"/>
+    <col min="4" max="4" width="24.5546875" style="103" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="103" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="103" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -25406,7 +28325,7 @@
       <c r="D48" s="105"/>
       <c r="E48" s="106"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:7">
       <c r="A49" s="105" t="s">
         <v>183</v>
       </c>
@@ -25416,7 +28335,7 @@
       <c r="D49" s="105"/>
       <c r="E49" s="106"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:7">
       <c r="A50" s="105" t="s">
         <v>362</v>
       </c>
@@ -25426,7 +28345,7 @@
       <c r="D50" s="105"/>
       <c r="E50" s="106"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:7">
       <c r="A51" s="105" t="s">
         <v>83</v>
       </c>
@@ -25436,7 +28355,7 @@
       <c r="D51" s="105"/>
       <c r="E51" s="106"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:7">
       <c r="A52" s="105" t="s">
         <v>191</v>
       </c>
@@ -25446,7 +28365,7 @@
       <c r="D52" s="105"/>
       <c r="E52" s="106"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:7">
       <c r="A53" s="105" t="s">
         <v>404</v>
       </c>
@@ -25456,109 +28375,261 @@
       <c r="D53" s="105"/>
       <c r="E53" s="106"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:7">
       <c r="A55" s="103" t="s">
         <v>403</v>
       </c>
       <c r="B55" s="103" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="D55" s="103" t="s">
+        <v>403</v>
+      </c>
+      <c r="E55" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="F55" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="G55" s="103" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="105" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="104">
         <v>1179634.56</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="D56" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="104">
+        <v>1179634.56</v>
+      </c>
+      <c r="F56" s="107">
+        <v>2</v>
+      </c>
+      <c r="G56" s="106">
+        <v>0.43719387203051313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="105" t="s">
         <v>204</v>
       </c>
       <c r="B57" s="104">
         <v>657529.57999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="D57" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="104">
+        <v>657529.57999999996</v>
+      </c>
+      <c r="F57" s="107">
+        <v>1</v>
+      </c>
+      <c r="G57" s="106">
+        <v>0.24369233727333064</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="105" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="104">
         <v>611854.70000000007</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="D58" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="104">
+        <v>611854.70000000007</v>
+      </c>
+      <c r="F58" s="107">
+        <v>2</v>
+      </c>
+      <c r="G58" s="106">
+        <v>0.22676440186108823</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="105" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="104">
         <v>110420.92</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="D59" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="104">
+        <v>110420.92</v>
+      </c>
+      <c r="F59" s="107">
+        <v>5</v>
+      </c>
+      <c r="G59" s="106">
+        <v>4.0923987143926609E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="105" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="104">
         <v>47226.44</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="D60" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="104">
+        <v>47226.44</v>
+      </c>
+      <c r="F60" s="107">
+        <v>8</v>
+      </c>
+      <c r="G60" s="106">
+        <v>1.7502971569277104E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="105" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="104">
         <v>39861.049999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="D61" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="104">
+        <v>39861.049999999996</v>
+      </c>
+      <c r="F61" s="107">
+        <v>2</v>
+      </c>
+      <c r="G61" s="106">
+        <v>1.4773225016993298E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="105" t="s">
         <v>208</v>
       </c>
       <c r="B62" s="104">
         <v>22302.879999999997</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="D62" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="104">
+        <v>22302.879999999997</v>
+      </c>
+      <c r="F62" s="107">
+        <v>9</v>
+      </c>
+      <c r="G62" s="106">
+        <v>8.2658501160154958E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="105" t="s">
         <v>131</v>
       </c>
       <c r="B63" s="104">
         <v>20543.510000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="D63" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="104">
+        <v>20543.510000000002</v>
+      </c>
+      <c r="F63" s="107">
+        <v>6</v>
+      </c>
+      <c r="G63" s="106">
+        <v>7.6137958199508559E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="105" t="s">
         <v>119</v>
       </c>
       <c r="B64" s="104">
         <v>14930</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="D64" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="104">
+        <v>14930</v>
+      </c>
+      <c r="F64" s="107">
+        <v>1</v>
+      </c>
+      <c r="G64" s="106">
+        <v>5.533327634462965E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="105" t="s">
         <v>230</v>
       </c>
       <c r="B65" s="104">
         <v>374.16</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="D65" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="104">
+        <v>374.16</v>
+      </c>
+      <c r="F65" s="107">
+        <v>1</v>
+      </c>
+      <c r="G65" s="106">
+        <v>1.3867045329609264E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="105" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="104"/>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D66" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="104"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="105" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="104">
         <v>-6482.25</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="D67" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="104">
+        <v>-6482.25</v>
+      </c>
+      <c r="F67" s="107">
+        <v>1</v>
+      </c>
+      <c r="G67" s="106">
+        <v>-2.4024389188544914E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="103" t="s">
         <v>403</v>
       </c>
@@ -25566,7 +28637,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:7">
       <c r="A70" s="105" t="s">
         <v>208</v>
       </c>
@@ -25574,7 +28645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:7">
       <c r="A71" s="105" t="s">
         <v>23</v>
       </c>
@@ -25582,7 +28653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:7">
       <c r="A72" s="105" t="s">
         <v>131</v>
       </c>
@@ -25590,7 +28661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:7">
       <c r="A73" s="105" t="s">
         <v>36</v>
       </c>
@@ -25598,7 +28669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:7">
       <c r="A74" s="105" t="s">
         <v>68</v>
       </c>
@@ -25606,7 +28677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:7">
       <c r="A75" s="105" t="s">
         <v>78</v>
       </c>
@@ -25614,7 +28685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:7">
       <c r="A76" s="105" t="s">
         <v>64</v>
       </c>
@@ -25622,7 +28693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:7">
       <c r="A77" s="105" t="s">
         <v>119</v>
       </c>
@@ -25630,7 +28701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:7">
       <c r="A78" s="105" t="s">
         <v>94</v>
       </c>
@@ -25638,7 +28709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:7">
       <c r="A79" s="105" t="s">
         <v>230</v>
       </c>
@@ -25646,7 +28717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:7">
       <c r="A80" s="105" t="s">
         <v>204</v>
       </c>
@@ -25766,7 +28837,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -25774,8 +28845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A7350B-FAAE-45E8-A9B8-CE2BB5D1EB32}">
   <dimension ref="A9:A37"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25789,7 +28860,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0688DB1-9579-4881-AC55-4312A2425C35}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005C3ABA9D19A84C42BE30A5EB25EBB23F" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="d49316a5f636a4741a5082e63a60a894">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7d2ff0fc-df1f-46c5-9a33-34d1d9a258dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9004fda2230b0c4218ad9256bd2a78d8" ns2:_="">
     <xsd:import namespace="7d2ff0fc-df1f-46c5-9a33-34d1d9a258dc"/>
@@ -25921,22 +29022,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE1A84E5-3CA8-4951-A3E2-16EA29682CF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7d2ff0fc-df1f-46c5-9a33-34d1d9a258dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60F07BBB-732B-45B3-8434-9D6E570A1FD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F69F5D-4B96-47D5-BF02-7EF74F5A100A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25952,28 +29062,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60F07BBB-732B-45B3-8434-9D6E570A1FD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE1A84E5-3CA8-4951-A3E2-16EA29682CF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7d2ff0fc-df1f-46c5-9a33-34d1d9a258dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>